--- a/output_validation/04_pin_factor_upperprimary.xlsx
+++ b/output_validation/04_pin_factor_upperprimary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="34">
   <si>
     <t>admin1</t>
   </si>
@@ -31,31 +31,28 @@
     <t>TotN</t>
   </si>
   <si>
-    <t>% 1-2</t>
-  </si>
-  <si>
-    <t># 1-2</t>
-  </si>
-  <si>
-    <t>% 3</t>
-  </si>
-  <si>
-    <t># 3</t>
-  </si>
-  <si>
-    <t>% 4</t>
-  </si>
-  <si>
-    <t># 4</t>
-  </si>
-  <si>
-    <t>% 5</t>
-  </si>
-  <si>
-    <t># 5</t>
-  </si>
-  <si>
-    <t>Category</t>
+    <t>% severity levels 1-2</t>
+  </si>
+  <si>
+    <t># severity levels 1-2</t>
+  </si>
+  <si>
+    <t>% severity level 3</t>
+  </si>
+  <si>
+    <t># severity level 3</t>
+  </si>
+  <si>
+    <t>% severity level 4</t>
+  </si>
+  <si>
+    <t># severity level 4</t>
+  </si>
+  <si>
+    <t>% severity level 5</t>
+  </si>
+  <si>
+    <t># severity level 5</t>
   </si>
   <si>
     <t>MMR001</t>
@@ -113,9 +110,6 @@
   </si>
   <si>
     <t>ocap</t>
-  </si>
-  <si>
-    <t>upper_primary</t>
   </si>
   <si>
     <t>idp</t>
@@ -482,13 +476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,19 +519,16 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>28962.12307692308</v>
@@ -566,19 +557,16 @@
       <c r="L2">
         <v>191.1086100595527</v>
       </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>15164.36923076923</v>
@@ -607,19 +595,16 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>21877.04615384615</v>
@@ -648,19 +633,16 @@
       <c r="L4">
         <v>97.66120196851996</v>
       </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>24417.50769230769</v>
@@ -689,19 +671,16 @@
       <c r="L5">
         <v>269.7450947509572</v>
       </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>63611.26153846153</v>
@@ -730,19 +709,16 @@
       <c r="L6">
         <v>310.946164884855</v>
       </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>87453.90769230768</v>
@@ -771,19 +747,16 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>35117.6</v>
@@ -812,19 +785,16 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>25347.75384615385</v>
@@ -853,19 +823,16 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>23990.61538461539</v>
@@ -894,19 +861,16 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>144496.1538461538</v>
@@ -935,19 +899,16 @@
       <c r="L11">
         <v>1039.543360539971</v>
       </c>
-      <c r="M11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>28850.12307692308</v>
@@ -976,19 +937,16 @@
       <c r="L12">
         <v>2326.581927537307</v>
       </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>31811.44615384615</v>
@@ -1017,19 +975,16 @@
       <c r="L13">
         <v>125.5159583625254</v>
       </c>
-      <c r="M13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>28938.43076923077</v>
@@ -1058,19 +1013,16 @@
       <c r="L14">
         <v>124.0913503609797</v>
       </c>
-      <c r="M14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>73850.64615384614</v>
@@ -1099,19 +1051,16 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>53407.2</v>
@@ -1140,19 +1089,16 @@
       <c r="L16">
         <v>313.3050984648863</v>
       </c>
-      <c r="M16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <v>21772.36923076923</v>
@@ -1181,19 +1127,16 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>25181.69230769231</v>
@@ -1222,19 +1165,16 @@
       <c r="L18">
         <v>148.78767540016</v>
       </c>
-      <c r="M18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>26238.58461538461</v>
@@ -1262,9 +1202,6 @@
       </c>
       <c r="L19">
         <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1274,13 +1211,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,19 +1254,16 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>4137.446153846155</v>
@@ -1358,19 +1292,16 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>2166.338461538462</v>
@@ -1399,19 +1330,16 @@
       <c r="L3">
         <v>103.0586796640703</v>
       </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>3125.292307692308</v>
@@ -1440,19 +1368,16 @@
       <c r="L4">
         <v>123.7783399673137</v>
       </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>3488.215384615385</v>
@@ -1481,19 +1406,16 @@
       <c r="L5">
         <v>23.12993070551084</v>
       </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>9087.323076923078</v>
@@ -1522,19 +1444,16 @@
       <c r="L6">
         <v>796.9984031621692</v>
       </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>12493.41538461539</v>
@@ -1563,19 +1482,16 @@
       <c r="L7">
         <v>369.4088568562611</v>
       </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>5016.8</v>
@@ -1604,19 +1520,16 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>3427.23076923077</v>
@@ -1645,19 +1558,16 @@
       <c r="L9">
         <v>195.0239935758339</v>
       </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>4121.446153846155</v>
@@ -1686,19 +1596,16 @@
       <c r="L10">
         <v>412.3657057092543</v>
       </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>4544.492307692308</v>
@@ -1727,19 +1634,16 @@
       <c r="L11">
         <v>81.38996702452951</v>
       </c>
-      <c r="M11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>10550.09230769231</v>
@@ -1768,19 +1672,16 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>7629.6</v>
@@ -1808,9 +1709,6 @@
       </c>
       <c r="L13">
         <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1820,13 +1718,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1863,19 +1761,16 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>2068.723076923077</v>
@@ -1904,19 +1799,16 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>1083.169230769231</v>
@@ -1945,19 +1837,16 @@
       <c r="L3">
         <v>88.25993252179977</v>
       </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>1562.646153846154</v>
@@ -1986,19 +1875,16 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>1744.107692307693</v>
@@ -2027,19 +1913,16 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>4543.661538461539</v>
@@ -2068,19 +1951,16 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>6246.707692307694</v>
@@ -2109,19 +1989,16 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>2508.4</v>
@@ -2150,19 +2027,16 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>1713.615384615385</v>
@@ -2191,19 +2065,16 @@
       <c r="L9">
         <v>80.67858205295821</v>
       </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>2060.723076923077</v>
@@ -2232,19 +2103,16 @@
       <c r="L10">
         <v>35.66643288301117</v>
       </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>2272.246153846154</v>
@@ -2273,19 +2141,16 @@
       <c r="L11">
         <v>13.88003019653629</v>
       </c>
-      <c r="M11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>5275.046153846155</v>
@@ -2314,19 +2179,16 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>3814.8</v>
@@ -2354,9 +2216,6 @@
       </c>
       <c r="L13">
         <v>203.9418812077016</v>
-      </c>
-      <c r="M13" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2366,13 +2225,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2409,19 +2268,16 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>6816.738461538461</v>
@@ -2449,9 +2305,6 @@
       </c>
       <c r="L2">
         <v>18.94414749094607</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/04_pin_factor_upperprimary.xlsx
+++ b/output_validation/04_pin_factor_upperprimary.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="33">
-  <si>
-    <t>admin1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="36">
+  <si>
+    <t>admin3</t>
   </si>
   <si>
     <t>Population group</t>
@@ -52,61 +52,70 @@
     <t># severity level 5</t>
   </si>
   <si>
-    <t>MMR001</t>
-  </si>
-  <si>
-    <t>MMR002</t>
-  </si>
-  <si>
-    <t>MMR003</t>
-  </si>
-  <si>
-    <t>MMR004</t>
-  </si>
-  <si>
-    <t>MMR005</t>
-  </si>
-  <si>
-    <t>MMR006</t>
-  </si>
-  <si>
-    <t>MMR007</t>
-  </si>
-  <si>
-    <t>MMR008</t>
-  </si>
-  <si>
-    <t>MMR009</t>
-  </si>
-  <si>
-    <t>MMR010</t>
-  </si>
-  <si>
-    <t>MMR011</t>
-  </si>
-  <si>
-    <t>MMR012</t>
-  </si>
-  <si>
-    <t>MMR013</t>
-  </si>
-  <si>
-    <t>MMR014</t>
-  </si>
-  <si>
-    <t>MMR015</t>
-  </si>
-  <si>
-    <t>MMR016</t>
-  </si>
-  <si>
-    <t>MMR017</t>
-  </si>
-  <si>
-    <t>MMR018</t>
+    <t>MMR008003</t>
+  </si>
+  <si>
+    <t>MMR009018</t>
+  </si>
+  <si>
+    <t>MMR009019</t>
+  </si>
+  <si>
+    <t>MMR009020</t>
+  </si>
+  <si>
+    <t>MMR012003</t>
+  </si>
+  <si>
+    <t>MMR012004</t>
+  </si>
+  <si>
+    <t>MMR012006</t>
+  </si>
+  <si>
+    <t>MMR012010</t>
+  </si>
+  <si>
+    <t>MMR012011</t>
+  </si>
+  <si>
+    <t>MMR012014</t>
+  </si>
+  <si>
+    <t>MMR012015</t>
+  </si>
+  <si>
+    <t>MMR012016</t>
+  </si>
+  <si>
+    <t>MMR001001</t>
+  </si>
+  <si>
+    <t>MMR001002</t>
+  </si>
+  <si>
+    <t>MMR001004</t>
+  </si>
+  <si>
+    <t>MMR002005</t>
+  </si>
+  <si>
+    <t>MMR002006</t>
+  </si>
+  <si>
+    <t>MMR002007</t>
   </si>
   <si>
     <t>ocap</t>
+  </si>
+  <si>
+    <t>MMR012001</t>
+  </si>
+  <si>
+    <t>MMR012005</t>
+  </si>
+  <si>
+    <t>MMR012007</t>
   </si>
   <si>
     <t>idp</t>
@@ -522,13 +531,13 @@
         <v>29</v>
       </c>
       <c r="C2">
-        <v>28962.12307692308</v>
+        <v>63611.26153846153</v>
       </c>
       <c r="D2">
-        <v>0.9140697865545047</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>26473.40165908837</v>
+        <v>63611.26153846153</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -537,10 +546,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.08593021344549534</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2488.721417834706</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -557,25 +566,25 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>15164.36923076923</v>
+        <v>73850.64615384614</v>
       </c>
       <c r="D3">
-        <v>0.2953518416036127</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4478.824379064851</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6741199099500413</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>10222.60322029533</v>
+        <v>73850.64615384614</v>
       </c>
       <c r="H3">
-        <v>0.03052824844634616</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>462.9416314090502</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -592,19 +601,19 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>21877.04615384615</v>
+        <v>15164.36923076923</v>
       </c>
       <c r="D4">
-        <v>0.6703202566789164</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>14664.62719322265</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3296797433210837</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>7212.4189606235</v>
+        <v>15164.36923076923</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -627,31 +636,31 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>24417.50769230769</v>
+        <v>144496.1538461538</v>
       </c>
       <c r="D5">
-        <v>0.125776487776275</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3071.14835778864</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7550424483963755</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>18436.25479173733</v>
+        <v>144496.1538461538</v>
       </c>
       <c r="H5">
-        <v>0.03435466991323431</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>838.8554168730903</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08482639391411527</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2071.249125908632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -662,25 +671,25 @@
         <v>29</v>
       </c>
       <c r="C6">
-        <v>63611.26153846153</v>
+        <v>28962.12307692308</v>
       </c>
       <c r="D6">
-        <v>0.1225075068689798</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>7792.85705986755</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8774924931310202</v>
+        <v>0.6964641341585097</v>
       </c>
       <c r="G6">
-        <v>55818.40447859398</v>
+        <v>20171.07997216142</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3035358658414903</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>8791.043104761653</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -697,25 +706,25 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>87453.90769230768</v>
+        <v>26238.58461538461</v>
       </c>
       <c r="D7">
-        <v>0.7256068481815973</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>63457.15432177972</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2146109304523383</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>18768.56450153905</v>
+        <v>26238.58461538461</v>
       </c>
       <c r="H7">
-        <v>0.05978222136606444</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>5228.188868988904</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -732,31 +741,31 @@
         <v>29</v>
       </c>
       <c r="C8">
-        <v>35117.6</v>
+        <v>53407.2</v>
       </c>
       <c r="D8">
-        <v>0.7924190383905769</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>27827.85482258493</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1591963593292097</v>
+        <v>0.8613945520003562</v>
       </c>
       <c r="G8">
-        <v>5590.594068379455</v>
+        <v>46004.67111759342</v>
       </c>
       <c r="H8">
-        <v>0.04838460228021334</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1699.15110903562</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1386054479996439</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>7402.528882406583</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -767,13 +776,13 @@
         <v>29</v>
       </c>
       <c r="C9">
-        <v>25347.75384615385</v>
+        <v>31811.44615384615</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>25347.75384615385</v>
+        <v>31811.44615384615</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -802,19 +811,19 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>23990.61538461539</v>
+        <v>28850.12307692308</v>
       </c>
       <c r="D10">
-        <v>0.6777018473264718</v>
+        <v>0.4190776228049733</v>
       </c>
       <c r="E10">
-        <v>16258.48436465272</v>
+        <v>12090.44099670782</v>
       </c>
       <c r="F10">
-        <v>0.3222981526735283</v>
+        <v>0.5809223771950267</v>
       </c>
       <c r="G10">
-        <v>7732.131019962667</v>
+        <v>16759.68208021525</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -840,16 +849,16 @@
         <v>144496.1538461538</v>
       </c>
       <c r="D11">
-        <v>0.8620064665872667</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>124556.6190123732</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1379935334127334</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>19939.5348337807</v>
+        <v>144496.1538461538</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -872,25 +881,25 @@
         <v>29</v>
       </c>
       <c r="C12">
-        <v>28850.12307692308</v>
+        <v>35117.6</v>
       </c>
       <c r="D12">
-        <v>0.7715321758342893</v>
+        <v>0.3864325710142018</v>
       </c>
       <c r="E12">
-        <v>22258.7982306255</v>
+        <v>13570.58445584833</v>
       </c>
       <c r="F12">
-        <v>0.1457899511717343</v>
+        <v>0.6135674289857982</v>
       </c>
       <c r="G12">
-        <v>4206.058034683139</v>
+        <v>21547.01554415167</v>
       </c>
       <c r="H12">
-        <v>0.08267787299397636</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2385.266811614433</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -907,31 +916,31 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>31811.44615384615</v>
+        <v>28938.43076923077</v>
       </c>
       <c r="D13">
-        <v>0.2976141001389314</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>9467.534921194994</v>
+        <v>28938.43076923077</v>
       </c>
       <c r="F13">
-        <v>0.6202356802759943</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>19730.59394579393</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.03738545073187088</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1189.285252894179</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0447647688532033</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1424.032033963046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -942,25 +951,25 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>28938.43076923077</v>
+        <v>63611.26153846153</v>
       </c>
       <c r="D14">
-        <v>0.5554147187463672</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="E14">
-        <v>16072.83038665353</v>
+        <v>58145.13225692431</v>
       </c>
       <c r="F14">
-        <v>0.4041575688726384</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>11695.68582668146</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.04042771238099447</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="I14">
-        <v>1169.914555895782</v>
+        <v>5466.129281537228</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -977,25 +986,25 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>73850.64615384614</v>
+        <v>28962.12307692308</v>
       </c>
       <c r="D15">
-        <v>0.8804077503986378</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="E15">
-        <v>65018.6812457935</v>
+        <v>26473.40165908837</v>
       </c>
       <c r="F15">
-        <v>0.1195922496013622</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>8831.964908052647</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2488.721417834706</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1012,25 +1021,25 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>53407.2</v>
+        <v>26238.58461538461</v>
       </c>
       <c r="D16">
-        <v>0.6968263533264397</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="E16">
-        <v>37215.54441737583</v>
+        <v>23983.89743887692</v>
       </c>
       <c r="F16">
-        <v>0.3031736466735603</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>16191.65558262417</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2254.68717650769</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1047,25 +1056,25 @@
         <v>29</v>
       </c>
       <c r="C17">
-        <v>21772.36923076923</v>
+        <v>25347.75384615385</v>
       </c>
       <c r="D17">
-        <v>0.9310762092269746</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="E17">
-        <v>20271.73500927464</v>
+        <v>7486.505778976594</v>
       </c>
       <c r="F17">
-        <v>0.06892379077302539</v>
+        <v>0.6741199099500413</v>
       </c>
       <c r="G17">
-        <v>1500.634221494594</v>
+        <v>17087.42554020504</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>773.8225269722109</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1082,25 +1091,25 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>25181.69230769231</v>
+        <v>87453.90769230768</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="E18">
-        <v>25181.69230769231</v>
+        <v>25829.67269235542</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.6741199099500413</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>58954.42037831769</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2669.814621634592</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1117,25 +1126,25 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>26238.58461538461</v>
+        <v>21772.36923076923</v>
       </c>
       <c r="D19">
-        <v>0.7262436922562635</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="E19">
-        <v>19055.60657065532</v>
+        <v>6430.509348381524</v>
       </c>
       <c r="F19">
-        <v>0.2737563077437364</v>
+        <v>0.6741199099500413</v>
       </c>
       <c r="G19">
-        <v>7182.978044729299</v>
+        <v>14677.1875852452</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>664.6722971425057</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1151,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1194,31 +1203,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2">
-        <v>4137.446153846155</v>
+        <v>10550.09230769231</v>
       </c>
       <c r="D2">
-        <v>0.6986378325573731</v>
+        <v>0.7203196040432472</v>
       </c>
       <c r="E2">
-        <v>2890.576413245917</v>
+        <v>7599.438313696633</v>
       </c>
       <c r="F2">
-        <v>0.1309296905708729</v>
+        <v>0.2796803959567528</v>
       </c>
       <c r="G2">
-        <v>541.714544676725</v>
+        <v>2950.653993995677</v>
       </c>
       <c r="H2">
-        <v>0.1704324768717539</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>705.1551959235119</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1229,31 +1238,31 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <v>2166.338461538462</v>
+        <v>20642.3076923077</v>
       </c>
       <c r="D3">
-        <v>0.4671520190982254</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1012.009386357836</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4362981448828352</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>945.1694519575663</v>
+        <v>20642.3076923077</v>
       </c>
       <c r="H3">
-        <v>0.09654983601893945</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>209.15962322306</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1264,31 +1273,31 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>3125.292307692308</v>
+        <v>9087.323076923078</v>
       </c>
       <c r="D4">
-        <v>0.5505005570185084</v>
+        <v>0.2686371247226884</v>
       </c>
       <c r="E4">
-        <v>1720.475156230275</v>
+        <v>2441.192342810749</v>
       </c>
       <c r="F4">
-        <v>0.4494994429814916</v>
+        <v>0.5716063443351023</v>
       </c>
       <c r="G4">
-        <v>1404.817151462033</v>
+        <v>5194.371523792014</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1597565309422093</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1451.759210320315</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1299,31 +1308,31 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>3488.215384615385</v>
+        <v>4137.446153846155</v>
       </c>
       <c r="D5">
-        <v>0.2362255938995011</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>824.005750880146</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7237605554225978</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2524.632704202882</v>
+        <v>4137.446153846155</v>
       </c>
       <c r="H5">
-        <v>0.04001385067790107</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>139.5769295323572</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1334,31 +1343,31 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>9087.323076923078</v>
+        <v>3488.215384615385</v>
       </c>
       <c r="D6">
-        <v>0.06043364741733242</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>549.1800787981576</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8583608304788509</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>7800.20218313732</v>
+        <v>3488.215384615385</v>
       </c>
       <c r="H6">
-        <v>0.08120552210381662</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>737.9408149875999</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1369,66 +1378,66 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>12493.41538461539</v>
+        <v>3125.292307692308</v>
       </c>
       <c r="D7">
-        <v>0.165981388455387</v>
+        <v>0.5480373400211801</v>
       </c>
       <c r="E7">
-        <v>2073.674432088355</v>
+        <v>1712.776883096348</v>
       </c>
       <c r="F7">
-        <v>0.6465252877086792</v>
+        <v>0.18983405326939</v>
       </c>
       <c r="G7">
-        <v>8077.308976002502</v>
+        <v>593.2869064208766</v>
       </c>
       <c r="H7">
-        <v>0.1874933238359339</v>
+        <v>0.1812730652342958</v>
       </c>
       <c r="I7">
-        <v>2342.431976524531</v>
+        <v>566.5313163685505</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.08085554147513409</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>252.6972018065329</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>5016.8</v>
+        <v>4544.492307692308</v>
       </c>
       <c r="D8">
-        <v>0.8382017667306252</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>4205.090623334201</v>
+        <v>4544.492307692308</v>
       </c>
       <c r="F8">
-        <v>0.1230474506907969</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>617.3044506255898</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.03875078257857791</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>194.4049260402097</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1439,31 +1448,31 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9">
-        <v>3427.23076923077</v>
+        <v>9087.323076923078</v>
       </c>
       <c r="D9">
-        <v>0.3348719340637654</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="E9">
-        <v>1147.683396175154</v>
+        <v>6348.747698210138</v>
       </c>
       <c r="F9">
-        <v>0.5078237190080316</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="G9">
-        <v>1740.429075129526</v>
+        <v>1189.800398579091</v>
       </c>
       <c r="H9">
-        <v>0.1573043469282031</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="I9">
-        <v>539.1182979260894</v>
+        <v>1548.774980133848</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1474,31 +1483,31 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>4121.446153846155</v>
+        <v>4137.446153846155</v>
       </c>
       <c r="D10">
-        <v>0.5046915229780159</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="E10">
-        <v>2080.058936256502</v>
+        <v>2890.576413245917</v>
       </c>
       <c r="F10">
-        <v>0.3583226586368378</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="G10">
-        <v>1476.807543274723</v>
+        <v>541.714544676725</v>
       </c>
       <c r="H10">
-        <v>0.1369858183851464</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="I10">
-        <v>564.5796743149294</v>
+        <v>705.1551959235119</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1509,66 +1518,66 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C11">
-        <v>4544.492307692308</v>
+        <v>3748.369230769231</v>
       </c>
       <c r="D11">
-        <v>0.3709017435176196</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="E11">
-        <v>1685.560120325488</v>
+        <v>2618.752555009363</v>
       </c>
       <c r="F11">
-        <v>0.4558409666193095</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="G11">
-        <v>2071.565766332478</v>
+        <v>490.7728235299962</v>
       </c>
       <c r="H11">
-        <v>0.1422492925461661</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="I11">
-        <v>646.4508157507247</v>
+        <v>638.843852229871</v>
       </c>
       <c r="J11">
-        <v>0.03100799731690495</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>140.9156052836183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>10550.09230769231</v>
+        <v>3621.107692307693</v>
       </c>
       <c r="D12">
-        <v>0.4017572619326708</v>
+        <v>0.4671520190982254</v>
       </c>
       <c r="E12">
-        <v>4238.576198675394</v>
+        <v>1691.607769833654</v>
       </c>
       <c r="F12">
-        <v>0.5982427380673293</v>
+        <v>0.4362981448828352</v>
       </c>
       <c r="G12">
-        <v>6311.516109016916</v>
+        <v>1579.882568574811</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.09654983601893945</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>349.617353899228</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1579,36 +1588,71 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C13">
-        <v>7629.6</v>
+        <v>12493.41538461539</v>
       </c>
       <c r="D13">
-        <v>0.07542672232317281</v>
+        <v>0.4671520190982254</v>
       </c>
       <c r="E13">
-        <v>575.4757206368793</v>
+        <v>5836.32422235591</v>
       </c>
       <c r="F13">
-        <v>0.8690003027501599</v>
+        <v>0.4362981448828352</v>
       </c>
       <c r="G13">
-        <v>6630.124709862621</v>
+        <v>5450.853955558367</v>
       </c>
       <c r="H13">
-        <v>0.05557297492666727</v>
+        <v>0.09654983601893945</v>
       </c>
       <c r="I13">
-        <v>423.9995695005006</v>
+        <v>1206.237206701111</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>3110.338461538462</v>
+      </c>
+      <c r="D14">
+        <v>0.4671520190982254</v>
+      </c>
+      <c r="E14">
+        <v>1453.000892386561</v>
+      </c>
+      <c r="F14">
+        <v>0.4362981448828352</v>
+      </c>
+      <c r="G14">
+        <v>1357.034900726963</v>
+      </c>
+      <c r="H14">
+        <v>0.09654983601893945</v>
+      </c>
+      <c r="I14">
+        <v>300.3026684249389</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>0</v>
       </c>
     </row>
@@ -1619,7 +1663,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1662,25 +1706,25 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>2068.723076923077</v>
+        <v>1083.169230769231</v>
       </c>
       <c r="D2">
-        <v>0.5697812081955935</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1178.719534191337</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4302187918044066</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>890.0035427317407</v>
+        <v>1083.169230769231</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1697,25 +1741,25 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>1083.169230769231</v>
+        <v>10321.15384615385</v>
       </c>
       <c r="D3">
-        <v>0.112582448398471</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>121.9458440298884</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8584936775155422</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>929.8939362947581</v>
+        <v>10321.15384615385</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1724,39 +1768,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02892387408598686</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>31.32945044458447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>1562.646153846154</v>
+        <v>4543.661538461539</v>
       </c>
       <c r="D4">
-        <v>0.7742993638732156</v>
+        <v>0.4958472855812806</v>
       </c>
       <c r="E4">
-        <v>1209.955922882004</v>
+        <v>2252.962240446219</v>
       </c>
       <c r="F4">
-        <v>0.2257006361267845</v>
+        <v>0.2016356958596897</v>
       </c>
       <c r="G4">
-        <v>352.69023096415</v>
+        <v>916.1643560586008</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3025170185590298</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1374.53494195672</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1767,31 +1811,31 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>1744.107692307693</v>
+        <v>2068.723076923077</v>
       </c>
       <c r="D5">
-        <v>0.4535007307593025</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>790.9541129844594</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4693465799928334</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>818.5909805238084</v>
+        <v>2068.723076923077</v>
       </c>
       <c r="H5">
-        <v>0.07715268924786407</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>134.5625987994247</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1802,25 +1846,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>4543.661538461539</v>
+        <v>1874.184615384616</v>
       </c>
       <c r="D6">
-        <v>0.05932678460569384</v>
+        <v>0.8405128819480061</v>
       </c>
       <c r="E6">
-        <v>269.5608294134832</v>
+        <v>1575.276312379539</v>
       </c>
       <c r="F6">
-        <v>0.9406732153943062</v>
+        <v>0.1594871180519939</v>
       </c>
       <c r="G6">
-        <v>4274.100709048056</v>
+        <v>298.9083030050769</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1837,31 +1881,31 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>6246.707692307694</v>
+        <v>1744.107692307693</v>
       </c>
       <c r="D7">
-        <v>0.4111018004330445</v>
+        <v>0.5079094701116023</v>
       </c>
       <c r="E7">
-        <v>2568.032779086642</v>
+        <v>885.8488138175695</v>
       </c>
       <c r="F7">
-        <v>0.2813629377676347</v>
+        <v>0.4920905298883979</v>
       </c>
       <c r="G7">
-        <v>1757.592027683375</v>
+        <v>858.2588784901233</v>
       </c>
       <c r="H7">
-        <v>0.3075352617993207</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1921.082885537677</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1875,22 +1919,22 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>2508.4</v>
+        <v>3814.8</v>
       </c>
       <c r="D8">
-        <v>0.6174902311128901</v>
+        <v>0.5648647401941971</v>
       </c>
       <c r="E8">
-        <v>1548.912495723574</v>
+        <v>2154.846010892823</v>
       </c>
       <c r="F8">
-        <v>0.3825097688871097</v>
+        <v>0.4351352598058029</v>
       </c>
       <c r="G8">
-        <v>959.4875042764262</v>
+        <v>1659.953989107177</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1907,31 +1951,31 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9">
-        <v>1713.615384615385</v>
+        <v>10321.15384615385</v>
       </c>
       <c r="D9">
-        <v>0.1101821941067391</v>
+        <v>0.5514290487937468</v>
       </c>
       <c r="E9">
-        <v>188.8099029319868</v>
+        <v>5691.384047838537</v>
       </c>
       <c r="F9">
-        <v>0.7635005315760697</v>
+        <v>0.4485709512062533</v>
       </c>
       <c r="G9">
-        <v>1308.346257070777</v>
+        <v>4629.76979831531</v>
       </c>
       <c r="H9">
-        <v>0.1263172743171913</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>216.4592246126207</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1942,31 +1986,31 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>2060.723076923077</v>
+        <v>4543.661538461539</v>
       </c>
       <c r="D10">
-        <v>0.4768203747314557</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="E10">
-        <v>982.59474975622</v>
+        <v>2588.892961016465</v>
       </c>
       <c r="F10">
-        <v>0.3771087072538309</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="G10">
-        <v>777.1166155465985</v>
+        <v>1954.768577445075</v>
       </c>
       <c r="H10">
-        <v>0.1460709180147134</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>301.0117116202587</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1977,31 +2021,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>2272.246153846154</v>
+        <v>2068.723076923077</v>
       </c>
       <c r="D11">
-        <v>0.5063949657374379</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="E11">
-        <v>1150.654013223948</v>
+        <v>1178.719534191337</v>
       </c>
       <c r="F11">
-        <v>0.4543501314915568</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="G11">
-        <v>1032.395338781184</v>
+        <v>890.0035427317407</v>
       </c>
       <c r="H11">
-        <v>0.03925490277100506</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>89.19680184102099</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2012,25 +2056,25 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>5275.046153846155</v>
+        <v>1874.184615384616</v>
       </c>
       <c r="D12">
-        <v>0.6101954436206178</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="E12">
-        <v>3218.809127965388</v>
+        <v>1067.87517453544</v>
       </c>
       <c r="F12">
-        <v>0.3898045563793823</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="G12">
-        <v>2056.237025880767</v>
+        <v>806.3094408491758</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2047,37 +2091,107 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>3814.8</v>
+        <v>1810.553846153846</v>
       </c>
       <c r="D13">
-        <v>0.4427434746950732</v>
+        <v>0.112582448398471</v>
       </c>
       <c r="E13">
-        <v>1688.977807266765</v>
+        <v>203.8365849572685</v>
       </c>
       <c r="F13">
-        <v>0.4344131602771897</v>
+        <v>0.8584936775155422</v>
       </c>
       <c r="G13">
-        <v>1657.199323825424</v>
+        <v>1554.349029724525</v>
       </c>
       <c r="H13">
-        <v>0.1228433650277372</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>468.6228689078118</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02892387408598686</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>52.36823147205308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>6246.707692307694</v>
+      </c>
+      <c r="D14">
+        <v>0.112582448398471</v>
+      </c>
+      <c r="E14">
+        <v>703.2696464295626</v>
+      </c>
+      <c r="F14">
+        <v>0.8584936775155422</v>
+      </c>
+      <c r="G14">
+        <v>5362.759059133858</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.02892387408598686</v>
+      </c>
+      <c r="K14">
+        <v>180.6789867442733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>1555.169230769231</v>
+      </c>
+      <c r="D15">
+        <v>0.112582448398471</v>
+      </c>
+      <c r="E15">
+        <v>175.0847596739667</v>
+      </c>
+      <c r="F15">
+        <v>0.8584936775155422</v>
+      </c>
+      <c r="G15">
+        <v>1335.102952082094</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.02892387408598686</v>
+      </c>
+      <c r="K15">
+        <v>44.98151901317028</v>
       </c>
     </row>
   </sheetData>
@@ -2087,7 +2201,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2130,36 +2244,211 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>13630.98461538462</v>
+      </c>
+      <c r="D2">
+        <v>0.2304031860173474</v>
+      </c>
+      <c r="E2">
+        <v>3140.622283938063</v>
+      </c>
+      <c r="F2">
+        <v>0.4969275497660341</v>
+      </c>
+      <c r="G2">
+        <v>6773.611785821583</v>
+      </c>
+      <c r="H2">
+        <v>0.2726692642166184</v>
+      </c>
+      <c r="I2">
+        <v>3716.750545624968</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>6206.169230769231</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>6206.169230769231</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>5622.553846153846</v>
+      </c>
+      <c r="D4">
+        <v>0.7820095700217157</v>
+      </c>
+      <c r="E4">
+        <v>4396.890915654713</v>
+      </c>
+      <c r="F4">
+        <v>0.2179904299782842</v>
+      </c>
+      <c r="G4">
+        <v>1225.662930499132</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>5232.323076923077</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5232.323076923077</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="C2">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>4687.938461538462</v>
+      </c>
+      <c r="D6">
+        <v>0.233279274036484</v>
+      </c>
+      <c r="E6">
+        <v>1093.598881035404</v>
+      </c>
+      <c r="F6">
+        <v>0.7667207259635161</v>
+      </c>
+      <c r="G6">
+        <v>3594.339580503058</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
         <v>6816.738461538461</v>
       </c>
-      <c r="D2">
-        <v>0.357012769940906</v>
-      </c>
-      <c r="E2">
-        <v>2433.662680116556</v>
-      </c>
-      <c r="F2">
-        <v>0.5302458965458244</v>
-      </c>
-      <c r="G2">
-        <v>3614.547597056865</v>
-      </c>
-      <c r="H2">
-        <v>0.1127413335132695</v>
-      </c>
-      <c r="I2">
-        <v>768.5281843650396</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>6816.738461538461</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>0</v>
       </c>
     </row>

--- a/output_validation/04_pin_factor_upperprimary.xlsx
+++ b/output_validation/04_pin_factor_upperprimary.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="36">
-  <si>
-    <t>admin3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="33">
+  <si>
+    <t>admin1</t>
   </si>
   <si>
     <t>Population group</t>
@@ -52,70 +52,61 @@
     <t># severity level 5</t>
   </si>
   <si>
-    <t>MMR008003</t>
-  </si>
-  <si>
-    <t>MMR009018</t>
-  </si>
-  <si>
-    <t>MMR009019</t>
-  </si>
-  <si>
-    <t>MMR009020</t>
-  </si>
-  <si>
-    <t>MMR012003</t>
-  </si>
-  <si>
-    <t>MMR012004</t>
-  </si>
-  <si>
-    <t>MMR012006</t>
-  </si>
-  <si>
-    <t>MMR012010</t>
-  </si>
-  <si>
-    <t>MMR012011</t>
-  </si>
-  <si>
-    <t>MMR012014</t>
-  </si>
-  <si>
-    <t>MMR012015</t>
-  </si>
-  <si>
-    <t>MMR012016</t>
-  </si>
-  <si>
-    <t>MMR001001</t>
-  </si>
-  <si>
-    <t>MMR001002</t>
-  </si>
-  <si>
-    <t>MMR001004</t>
-  </si>
-  <si>
-    <t>MMR002005</t>
-  </si>
-  <si>
-    <t>MMR002006</t>
-  </si>
-  <si>
-    <t>MMR002007</t>
+    <t>MMR001</t>
+  </si>
+  <si>
+    <t>MMR002</t>
+  </si>
+  <si>
+    <t>MMR003</t>
+  </si>
+  <si>
+    <t>MMR004</t>
+  </si>
+  <si>
+    <t>MMR005</t>
+  </si>
+  <si>
+    <t>MMR006</t>
+  </si>
+  <si>
+    <t>MMR007</t>
+  </si>
+  <si>
+    <t>MMR008</t>
+  </si>
+  <si>
+    <t>MMR009</t>
+  </si>
+  <si>
+    <t>MMR010</t>
+  </si>
+  <si>
+    <t>MMR011</t>
+  </si>
+  <si>
+    <t>MMR012</t>
+  </si>
+  <si>
+    <t>MMR013</t>
+  </si>
+  <si>
+    <t>MMR014</t>
+  </si>
+  <si>
+    <t>MMR015</t>
+  </si>
+  <si>
+    <t>MMR016</t>
+  </si>
+  <si>
+    <t>MMR017</t>
+  </si>
+  <si>
+    <t>MMR018</t>
   </si>
   <si>
     <t>ocap</t>
-  </si>
-  <si>
-    <t>MMR012001</t>
-  </si>
-  <si>
-    <t>MMR012005</t>
-  </si>
-  <si>
-    <t>MMR012007</t>
   </si>
   <si>
     <t>idp</t>
@@ -531,31 +522,31 @@
         <v>29</v>
       </c>
       <c r="C2">
-        <v>63611.26153846153</v>
+        <v>28962.12307692308</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.7355010475254173</v>
       </c>
       <c r="E2">
-        <v>63611.26153846153</v>
+        <v>21301.67186163699</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.2347291702405611</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>6798.25511825116</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02317121176486182</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>671.0874869753759</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.006598570469159679</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>191.1086100595527</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -566,25 +557,25 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>73850.64615384614</v>
+        <v>15164.36923076923</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.2881114296960966</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>4369.028099516419</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6737953618662589</v>
       </c>
       <c r="G3">
-        <v>73850.64615384614</v>
+        <v>10217.68165331972</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.03809320843764467</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>577.6594779330976</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -601,31 +592,31 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>15164.36923076923</v>
+        <v>21877.04615384615</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.542864226316311</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>11876.26573439392</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3976487884179679</v>
       </c>
       <c r="G4">
-        <v>15164.36923076923</v>
+        <v>8699.380897240888</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.05502289074026563</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1203.738320242825</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.004464094525455411</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>97.66120196851996</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -636,31 +627,31 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>144496.1538461538</v>
+        <v>24417.50769230769</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2957402131124322</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7221.23892859753</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6578798859844721</v>
       </c>
       <c r="G5">
-        <v>144496.1538461538</v>
+        <v>16063.78717664036</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.03533270074859607</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>862.7364923188503</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01104720015449962</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>269.7450947509572</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -671,31 +662,31 @@
         <v>29</v>
       </c>
       <c r="C6">
-        <v>28962.12307692308</v>
+        <v>63611.26153846153</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.2168995155835068</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>13797.25181334806</v>
       </c>
       <c r="F6">
-        <v>0.6964641341585097</v>
+        <v>0.7305780530002808</v>
       </c>
       <c r="G6">
-        <v>20171.07997216142</v>
+        <v>46472.99160366088</v>
       </c>
       <c r="H6">
-        <v>0.3035358658414903</v>
+        <v>0.04763420632265963</v>
       </c>
       <c r="I6">
-        <v>8791.043104761653</v>
+        <v>3030.07195656774</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.004888225093552757</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>310.946164884855</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -706,25 +697,25 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>26238.58461538461</v>
+        <v>87453.90769230768</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.7255237755561456</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>63449.88929606171</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.2370695257967525</v>
       </c>
       <c r="G7">
-        <v>26238.58461538461</v>
+        <v>20732.65642568835</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.03740669864710201</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3271.361970557629</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -741,31 +732,31 @@
         <v>29</v>
       </c>
       <c r="C8">
-        <v>53407.2</v>
+        <v>35117.6</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.7749837497270196</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>27215.56932941358</v>
       </c>
       <c r="F8">
-        <v>0.8613945520003562</v>
+        <v>0.209809235113927</v>
       </c>
       <c r="G8">
-        <v>46004.67111759342</v>
+        <v>7367.996795036842</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0152070151590535</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>534.0338755495771</v>
       </c>
       <c r="J8">
-        <v>0.1386054479996439</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>7402.528882406583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -776,25 +767,25 @@
         <v>29</v>
       </c>
       <c r="C9">
-        <v>31811.44615384615</v>
+        <v>25347.75384615385</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.7567306197548094</v>
       </c>
       <c r="E9">
-        <v>31811.44615384615</v>
+        <v>19181.42147739235</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.1675719832943586</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>4247.573384057206</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.07569739695083223</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1918.758984704292</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -811,25 +802,25 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>28850.12307692308</v>
+        <v>23990.61538461539</v>
       </c>
       <c r="D10">
-        <v>0.4190776228049733</v>
+        <v>0.7815722567773472</v>
       </c>
       <c r="E10">
-        <v>12090.44099670782</v>
+        <v>18750.39940763119</v>
       </c>
       <c r="F10">
-        <v>0.5809223771950267</v>
+        <v>0.2048177817451928</v>
       </c>
       <c r="G10">
-        <v>16759.68208021525</v>
+        <v>4913.704625779019</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0136099614774599</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>326.5113512051722</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -849,28 +840,28 @@
         <v>144496.1538461538</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.7738342948998559</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>111816.0793272795</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.1835332944656455</v>
       </c>
       <c r="G11">
-        <v>144496.1538461538</v>
+        <v>26519.85515299936</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.03543814744568882</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>5120.676005334936</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.007194263188809723</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1039.543360539971</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -881,31 +872,31 @@
         <v>29</v>
       </c>
       <c r="C12">
-        <v>35117.6</v>
+        <v>28850.12307692308</v>
       </c>
       <c r="D12">
-        <v>0.3864325710142018</v>
+        <v>0.6759834838293406</v>
       </c>
       <c r="E12">
-        <v>13570.58445584833</v>
+        <v>19502.20670644372</v>
       </c>
       <c r="F12">
-        <v>0.6135674289857982</v>
+        <v>0.1561867307546227</v>
       </c>
       <c r="G12">
-        <v>21547.01554415167</v>
+        <v>4506.006405253111</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.08718604184052609</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2515.328037688942</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.08064374357551064</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2326.581927537307</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -916,31 +907,31 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>28938.43076923077</v>
+        <v>31811.44615384615</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.4619138320502864</v>
       </c>
       <c r="E13">
-        <v>28938.43076923077</v>
+        <v>14694.14699598442</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.4818668178334236</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>15328.88032883315</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.05227372759553111</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1662.90287066606</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.003945622520758929</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>125.5159583625254</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -951,31 +942,31 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>63611.26153846153</v>
+        <v>28938.43076923077</v>
       </c>
       <c r="D14">
-        <v>0.9140697865545047</v>
+        <v>0.6577904324554797</v>
       </c>
       <c r="E14">
-        <v>58145.13225692431</v>
+        <v>19035.42289027527</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.2601186299610622</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>7527.424964915353</v>
       </c>
       <c r="H14">
-        <v>0.08593021344549534</v>
+        <v>0.07780282150174836</v>
       </c>
       <c r="I14">
-        <v>5466.129281537228</v>
+        <v>2251.491563679164</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.004288116081709647</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>124.0913503609797</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -986,25 +977,25 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>28962.12307692308</v>
+        <v>73850.64615384614</v>
       </c>
       <c r="D15">
-        <v>0.9140697865545047</v>
+        <v>0.8174822877535954</v>
       </c>
       <c r="E15">
-        <v>26473.40165908837</v>
+        <v>60371.59516992742</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.1384496847897296</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>10224.59868151786</v>
       </c>
       <c r="H15">
-        <v>0.08593021344549534</v>
+        <v>0.04406802745667497</v>
       </c>
       <c r="I15">
-        <v>2488.721417834706</v>
+        <v>3254.45230240088</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1021,31 +1012,31 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>26238.58461538461</v>
+        <v>53407.2</v>
       </c>
       <c r="D16">
-        <v>0.9140697865545047</v>
+        <v>0.5381211257149618</v>
       </c>
       <c r="E16">
-        <v>23983.89743887692</v>
+        <v>28739.54258528411</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.3977397650072821</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>21242.16717769692</v>
       </c>
       <c r="H16">
-        <v>0.08593021344549534</v>
+        <v>0.05827276357034409</v>
       </c>
       <c r="I16">
-        <v>2254.68717650769</v>
+        <v>3112.185138554081</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.005866345707411853</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>313.3050984648863</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1056,25 +1047,25 @@
         <v>29</v>
       </c>
       <c r="C17">
-        <v>25347.75384615385</v>
+        <v>21772.36923076923</v>
       </c>
       <c r="D17">
-        <v>0.2953518416036127</v>
+        <v>0.8548534137558078</v>
       </c>
       <c r="E17">
-        <v>7486.505778976594</v>
+        <v>18612.18416247499</v>
       </c>
       <c r="F17">
-        <v>0.6741199099500413</v>
+        <v>0.1094267861545242</v>
       </c>
       <c r="G17">
-        <v>17087.42554020504</v>
+        <v>2382.480391892727</v>
       </c>
       <c r="H17">
-        <v>0.03052824844634616</v>
+        <v>0.03571980008966798</v>
       </c>
       <c r="I17">
-        <v>773.8225269722109</v>
+        <v>777.704676401515</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1091,31 +1082,31 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>87453.90769230768</v>
+        <v>25181.69230769231</v>
       </c>
       <c r="D18">
-        <v>0.2953518416036127</v>
+        <v>0.9248139239710328</v>
       </c>
       <c r="E18">
-        <v>25829.67269235542</v>
+        <v>23288.3796753081</v>
       </c>
       <c r="F18">
-        <v>0.6741199099500413</v>
+        <v>0.03634751776327397</v>
       </c>
       <c r="G18">
-        <v>58954.42037831769</v>
+        <v>915.2920084631457</v>
       </c>
       <c r="H18">
-        <v>0.03052824844634616</v>
+        <v>0.03292999288485467</v>
       </c>
       <c r="I18">
-        <v>2669.814621634592</v>
+        <v>829.2329485209075</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.005908565380838581</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>148.78767540016</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1126,25 +1117,25 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>21772.36923076923</v>
+        <v>26238.58461538461</v>
       </c>
       <c r="D19">
-        <v>0.2953518416036127</v>
+        <v>0.87123704802994</v>
       </c>
       <c r="E19">
-        <v>6430.509348381524</v>
+        <v>22860.02700479149</v>
       </c>
       <c r="F19">
-        <v>0.6741199099500413</v>
+        <v>0.08529242819010917</v>
       </c>
       <c r="G19">
-        <v>14677.1875852452</v>
+        <v>2237.952594117795</v>
       </c>
       <c r="H19">
-        <v>0.03052824844634616</v>
+        <v>0.04347052377995093</v>
       </c>
       <c r="I19">
-        <v>664.6722971425057</v>
+        <v>1140.605016475332</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1160,7 +1151,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1203,31 +1194,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>10550.09230769231</v>
+        <v>4137.446153846155</v>
       </c>
       <c r="D2">
-        <v>0.7203196040432472</v>
+        <v>0.7106540107189163</v>
       </c>
       <c r="E2">
-        <v>7599.438313696633</v>
+        <v>2940.292703364324</v>
       </c>
       <c r="F2">
-        <v>0.2796803959567528</v>
+        <v>0.1940314058866316</v>
       </c>
       <c r="G2">
-        <v>2950.653993995677</v>
+        <v>802.7944940110061</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.09531458339445194</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>394.3589564708237</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1238,206 +1229,206 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>20642.3076923077</v>
+        <v>2166.338461538462</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.3290499252879423</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>712.8335089176268</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6036718536496696</v>
       </c>
       <c r="G3">
-        <v>20642.3076923077</v>
+        <v>1307.757554709497</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01970547031554419</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>42.68871824726783</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.04757275074684381</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>103.0586796640703</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
       <c r="C4">
-        <v>9087.323076923078</v>
+        <v>3125.292307692308</v>
       </c>
       <c r="D4">
-        <v>0.2686371247226884</v>
+        <v>0.451490579415013</v>
       </c>
       <c r="E4">
-        <v>2441.192342810749</v>
+        <v>1411.040034841283</v>
       </c>
       <c r="F4">
-        <v>0.5716063443351023</v>
+        <v>0.4698528086710667</v>
       </c>
       <c r="G4">
-        <v>5194.371523792014</v>
+        <v>1468.42736868731</v>
       </c>
       <c r="H4">
-        <v>0.1597565309422093</v>
+        <v>0.03905124774921262</v>
       </c>
       <c r="I4">
-        <v>1451.759210320315</v>
+        <v>122.0465641964008</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03960536416470775</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>123.7783399673137</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>4137.446153846155</v>
+        <v>3488.215384615385</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2418234127364369</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>843.5321486674353</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.7294574180822524</v>
       </c>
       <c r="G5">
-        <v>4137.446153846155</v>
+        <v>2544.50458817633</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02208829116628782</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>77.04871706610928</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.006630878015022912</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>23.12993070551084</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>3488.215384615385</v>
+        <v>9087.323076923078</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.03115927001577109</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>283.154353474394</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.8586113691592343</v>
       </c>
       <c r="G6">
-        <v>3488.215384615385</v>
+        <v>7802.47890906923</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0225249404565677</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>204.6914112172859</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.08770442036842702</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>796.9984031621692</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>3125.292307692308</v>
+        <v>12493.41538461539</v>
       </c>
       <c r="D7">
-        <v>0.5480373400211801</v>
+        <v>0.3453075914522154</v>
       </c>
       <c r="E7">
-        <v>1712.776883096348</v>
+        <v>4314.071175473592</v>
       </c>
       <c r="F7">
-        <v>0.18983405326939</v>
+        <v>0.5658377226259738</v>
       </c>
       <c r="G7">
-        <v>593.2869064208766</v>
+        <v>7069.245709051075</v>
       </c>
       <c r="H7">
-        <v>0.1812730652342958</v>
+        <v>0.0592864017109811</v>
       </c>
       <c r="I7">
-        <v>566.5313163685505</v>
+        <v>740.6896432344593</v>
       </c>
       <c r="J7">
-        <v>0.08085554147513409</v>
+        <v>0.02956828421082979</v>
       </c>
       <c r="K7">
-        <v>252.6972018065329</v>
+        <v>369.4088568562611</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>4544.492307692308</v>
+        <v>5016.8</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.6672571779664611</v>
       </c>
       <c r="E8">
-        <v>4544.492307692308</v>
+        <v>3347.495810422143</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.259974004174096</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1304.237584140605</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.07276881785944292</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>365.0666054372533</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1448,136 +1439,136 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>9087.323076923078</v>
+        <v>3427.23076923077</v>
       </c>
       <c r="D9">
-        <v>0.6986378325573731</v>
+        <v>0.430018342774032</v>
       </c>
       <c r="E9">
-        <v>6348.747698210138</v>
+        <v>1473.772095688787</v>
       </c>
       <c r="F9">
-        <v>0.1309296905708729</v>
+        <v>0.4386203619332985</v>
       </c>
       <c r="G9">
-        <v>1189.800398579091</v>
+        <v>1503.253200428937</v>
       </c>
       <c r="H9">
-        <v>0.1704324768717539</v>
+        <v>0.07445704614588498</v>
       </c>
       <c r="I9">
-        <v>1548.774980133848</v>
+        <v>255.1814795372123</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.05690424914678459</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>195.0239935758339</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>4137.446153846155</v>
+        <v>4121.446153846155</v>
       </c>
       <c r="D10">
-        <v>0.6986378325573731</v>
+        <v>0.503759477991108</v>
       </c>
       <c r="E10">
-        <v>2890.576413245917</v>
+        <v>2076.217563029998</v>
       </c>
       <c r="F10">
-        <v>0.1309296905708729</v>
+        <v>0.3269055964410499</v>
       </c>
       <c r="G10">
-        <v>541.714544676725</v>
+        <v>1347.323813122748</v>
       </c>
       <c r="H10">
-        <v>0.1704324768717539</v>
+        <v>0.06928128169712645</v>
       </c>
       <c r="I10">
-        <v>705.1551959235119</v>
+        <v>285.5390719841538</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1000536438707157</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>412.3657057092543</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>3748.369230769231</v>
+        <v>4544.492307692308</v>
       </c>
       <c r="D11">
-        <v>0.6986378325573731</v>
+        <v>0.3042856291533364</v>
       </c>
       <c r="E11">
-        <v>2618.752555009363</v>
+        <v>1382.823701028652</v>
       </c>
       <c r="F11">
-        <v>0.1309296905708729</v>
+        <v>0.53127577367946</v>
       </c>
       <c r="G11">
-        <v>490.7728235299962</v>
+        <v>2414.378666749586</v>
       </c>
       <c r="H11">
-        <v>0.1704324768717539</v>
+        <v>0.1465290131006264</v>
       </c>
       <c r="I11">
-        <v>638.843852229871</v>
+        <v>665.8999728895419</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.01790958406657735</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>81.38996702452951</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>3621.107692307693</v>
+        <v>10550.09230769231</v>
       </c>
       <c r="D12">
-        <v>0.4671520190982254</v>
+        <v>0.5351307850709578</v>
       </c>
       <c r="E12">
-        <v>1691.607769833654</v>
+        <v>5645.679179186458</v>
       </c>
       <c r="F12">
-        <v>0.4362981448828352</v>
+        <v>0.427848515348812</v>
       </c>
       <c r="G12">
-        <v>1579.882568574811</v>
+        <v>4513.841330639076</v>
       </c>
       <c r="H12">
-        <v>0.09654983601893945</v>
+        <v>0.03702069958023029</v>
       </c>
       <c r="I12">
-        <v>349.617353899228</v>
+        <v>390.5717978667755</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1588,71 +1579,36 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>12493.41538461539</v>
+        <v>7629.6</v>
       </c>
       <c r="D13">
-        <v>0.4671520190982254</v>
+        <v>0.1606215520728562</v>
       </c>
       <c r="E13">
-        <v>5836.32422235591</v>
+        <v>1225.478193695064</v>
       </c>
       <c r="F13">
-        <v>0.4362981448828352</v>
+        <v>0.8104340121734962</v>
       </c>
       <c r="G13">
-        <v>5450.853955558367</v>
+        <v>6183.287339278907</v>
       </c>
       <c r="H13">
-        <v>0.09654983601893945</v>
+        <v>0.02894443575364755</v>
       </c>
       <c r="I13">
-        <v>1206.237206701111</v>
+        <v>220.8344670260294</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14">
-        <v>3110.338461538462</v>
-      </c>
-      <c r="D14">
-        <v>0.4671520190982254</v>
-      </c>
-      <c r="E14">
-        <v>1453.000892386561</v>
-      </c>
-      <c r="F14">
-        <v>0.4362981448828352</v>
-      </c>
-      <c r="G14">
-        <v>1357.034900726963</v>
-      </c>
-      <c r="H14">
-        <v>0.09654983601893945</v>
-      </c>
-      <c r="I14">
-        <v>300.3026684249389</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
         <v>0</v>
       </c>
     </row>
@@ -1663,7 +1619,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1706,31 +1662,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>1083.169230769231</v>
+        <v>2068.723076923077</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.5993405930558749</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1239.869715791451</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3636580578984003</v>
       </c>
       <c r="G2">
-        <v>1083.169230769231</v>
+        <v>752.3078164834491</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.03700134904572487</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>76.54554464817673</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1741,66 +1697,66 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>10321.15384615385</v>
+        <v>1083.169230769231</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1643234671516556</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>177.9901235119917</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.7269411387684906</v>
       </c>
       <c r="G3">
-        <v>10321.15384615385</v>
+        <v>787.4002740943747</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.02725234414210714</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>29.51890064106455</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.08148304993774656</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>88.25993252179977</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>4543.661538461539</v>
+        <v>1562.646153846154</v>
       </c>
       <c r="D4">
-        <v>0.4958472855812806</v>
+        <v>0.4917716660792545</v>
       </c>
       <c r="E4">
-        <v>2252.962240446219</v>
+        <v>768.4651025692623</v>
       </c>
       <c r="F4">
-        <v>0.2016356958596897</v>
+        <v>0.5018100436891416</v>
       </c>
       <c r="G4">
-        <v>916.1643560586008</v>
+        <v>784.1515347322077</v>
       </c>
       <c r="H4">
-        <v>0.3025170185590298</v>
+        <v>0.006418290231603986</v>
       </c>
       <c r="I4">
-        <v>1374.53494195672</v>
+        <v>10.02951654468431</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1811,31 +1767,31 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>2068.723076923077</v>
+        <v>1744.107692307693</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.4068563174242845</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>709.6012328836749</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5438038650798588</v>
       </c>
       <c r="G5">
-        <v>2068.723076923077</v>
+        <v>948.4525041924363</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.04933981749585655</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>86.05395523158109</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1846,25 +1802,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>1874.184615384616</v>
+        <v>4543.661538461539</v>
       </c>
       <c r="D6">
-        <v>0.8405128819480061</v>
+        <v>0.07562392814612101</v>
       </c>
       <c r="E6">
-        <v>1575.276312379539</v>
+        <v>343.6095337049091</v>
       </c>
       <c r="F6">
-        <v>0.1594871180519939</v>
+        <v>0.9243760718538789</v>
       </c>
       <c r="G6">
-        <v>298.9083030050769</v>
+        <v>4200.05200475663</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1881,31 +1837,31 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
       <c r="C7">
-        <v>1744.107692307693</v>
+        <v>6246.707692307694</v>
       </c>
       <c r="D7">
-        <v>0.5079094701116023</v>
+        <v>0.5497172552716943</v>
       </c>
       <c r="E7">
-        <v>885.8488138175695</v>
+        <v>3433.923007099965</v>
       </c>
       <c r="F7">
-        <v>0.4920905298883979</v>
+        <v>0.3892670239583827</v>
       </c>
       <c r="G7">
-        <v>858.2588784901233</v>
+        <v>2431.637312922553</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.06101572076992296</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>381.1473722851761</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1919,28 +1875,28 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>3814.8</v>
+        <v>2508.4</v>
       </c>
       <c r="D8">
-        <v>0.5648647401941971</v>
+        <v>0.4732055462978784</v>
       </c>
       <c r="E8">
-        <v>2154.846010892823</v>
+        <v>1186.988792333598</v>
       </c>
       <c r="F8">
-        <v>0.4351352598058029</v>
+        <v>0.4835065653399762</v>
       </c>
       <c r="G8">
-        <v>1659.953989107177</v>
+        <v>1212.827868498796</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0432878883621454</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>108.5833391676055</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1951,136 +1907,136 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>10321.15384615385</v>
+        <v>1713.615384615385</v>
       </c>
       <c r="D9">
-        <v>0.5514290487937468</v>
+        <v>0.2802404301971404</v>
       </c>
       <c r="E9">
-        <v>5691.384047838537</v>
+        <v>480.2243125770536</v>
       </c>
       <c r="F9">
-        <v>0.4485709512062533</v>
+        <v>0.5367967648046197</v>
       </c>
       <c r="G9">
-        <v>4629.76979831531</v>
+        <v>919.8631945809626</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1358818889553052</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>232.8492954044104</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.04708091604293471</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>80.67858205295821</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>4543.661538461539</v>
+        <v>2060.723076923077</v>
       </c>
       <c r="D10">
-        <v>0.5697812081955935</v>
+        <v>0.5337870602633682</v>
       </c>
       <c r="E10">
-        <v>2588.892961016465</v>
+        <v>1099.987313247652</v>
       </c>
       <c r="F10">
-        <v>0.4302187918044066</v>
+        <v>0.3095139273790007</v>
       </c>
       <c r="G10">
-        <v>1954.768577445075</v>
+        <v>637.8224927790003</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1393912851416745</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>287.2468380134134</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0173077272159565</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>35.66643288301117</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>2068.723076923077</v>
+        <v>2272.246153846154</v>
       </c>
       <c r="D11">
-        <v>0.5697812081955935</v>
+        <v>0.3287750150324628</v>
       </c>
       <c r="E11">
-        <v>1178.719534191337</v>
+        <v>747.0577633882251</v>
       </c>
       <c r="F11">
-        <v>0.4302187918044066</v>
+        <v>0.5839649092903765</v>
       </c>
       <c r="G11">
-        <v>890.0035427317407</v>
+        <v>1326.912019116176</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.08115156926686631</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>184.3963411452167</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.006108506410294514</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.88003019653629</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12">
-        <v>1874.184615384616</v>
+        <v>5275.046153846155</v>
       </c>
       <c r="D12">
-        <v>0.5697812081955935</v>
+        <v>0.5928738109452726</v>
       </c>
       <c r="E12">
-        <v>1067.87517453544</v>
+        <v>3127.436716142972</v>
       </c>
       <c r="F12">
-        <v>0.4302187918044066</v>
+        <v>0.2064855341440782</v>
       </c>
       <c r="G12">
-        <v>806.3094408491758</v>
+        <v>1089.220722711589</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2006406549106493</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1058.388714991594</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2091,107 +2047,37 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>1810.553846153846</v>
+        <v>3814.8</v>
       </c>
       <c r="D13">
-        <v>0.112582448398471</v>
+        <v>0.3666693062507451</v>
       </c>
       <c r="E13">
-        <v>203.8365849572685</v>
+        <v>1398.770069485342</v>
       </c>
       <c r="F13">
-        <v>0.8584936775155422</v>
+        <v>0.5168045651851666</v>
       </c>
       <c r="G13">
-        <v>1554.349029724525</v>
+        <v>1971.506055268374</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.06306542781760052</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>240.5819940385825</v>
       </c>
       <c r="J13">
-        <v>0.02892387408598686</v>
+        <v>0.05346070074648779</v>
       </c>
       <c r="K13">
-        <v>52.36823147205308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <v>6246.707692307694</v>
-      </c>
-      <c r="D14">
-        <v>0.112582448398471</v>
-      </c>
-      <c r="E14">
-        <v>703.2696464295626</v>
-      </c>
-      <c r="F14">
-        <v>0.8584936775155422</v>
-      </c>
-      <c r="G14">
-        <v>5362.759059133858</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0.02892387408598686</v>
-      </c>
-      <c r="K14">
-        <v>180.6789867442733</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15">
-        <v>1555.169230769231</v>
-      </c>
-      <c r="D15">
-        <v>0.112582448398471</v>
-      </c>
-      <c r="E15">
-        <v>175.0847596739667</v>
-      </c>
-      <c r="F15">
-        <v>0.8584936775155422</v>
-      </c>
-      <c r="G15">
-        <v>1335.102952082094</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0.02892387408598686</v>
-      </c>
-      <c r="K15">
-        <v>44.98151901317028</v>
+        <v>203.9418812077016</v>
       </c>
     </row>
   </sheetData>
@@ -2201,7 +2087,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2244,212 +2130,37 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>13630.98461538462</v>
+        <v>6816.738461538461</v>
       </c>
       <c r="D2">
-        <v>0.2304031860173474</v>
+        <v>0.3202038642640018</v>
       </c>
       <c r="E2">
-        <v>3140.622283938063</v>
+        <v>2182.745997061662</v>
       </c>
       <c r="F2">
-        <v>0.4969275497660341</v>
+        <v>0.6089976789828835</v>
       </c>
       <c r="G2">
-        <v>6773.611785821583</v>
+        <v>4151.377901310275</v>
       </c>
       <c r="H2">
-        <v>0.2726692642166184</v>
+        <v>0.06801939348145869</v>
       </c>
       <c r="I2">
-        <v>3716.750545624968</v>
+        <v>463.6704156755779</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.002779063271655956</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3">
-        <v>6206.169230769231</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>6206.169230769231</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4">
-        <v>5622.553846153846</v>
-      </c>
-      <c r="D4">
-        <v>0.7820095700217157</v>
-      </c>
-      <c r="E4">
-        <v>4396.890915654713</v>
-      </c>
-      <c r="F4">
-        <v>0.2179904299782842</v>
-      </c>
-      <c r="G4">
-        <v>1225.662930499132</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
-        <v>5232.323076923077</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>5232.323076923077</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6">
-        <v>4687.938461538462</v>
-      </c>
-      <c r="D6">
-        <v>0.233279274036484</v>
-      </c>
-      <c r="E6">
-        <v>1093.598881035404</v>
-      </c>
-      <c r="F6">
-        <v>0.7667207259635161</v>
-      </c>
-      <c r="G6">
-        <v>3594.339580503058</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>6816.738461538461</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>6816.738461538461</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
+        <v>18.94414749094607</v>
       </c>
     </row>
   </sheetData>
